--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Microalbuminuria (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Microalbuminuria (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78.27325990167969</v>
+        <v>78.01006965174119</v>
       </c>
       <c r="B2" t="n">
-        <v>65.95106464543082</v>
+        <v>65.94399999999997</v>
       </c>
       <c r="C2" t="n">
-        <v>87.00737946295932</v>
+        <v>87.53200000000002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26.12792703150904</v>
+        <v>26.50179104477606</v>
       </c>
       <c r="B3" t="n">
-        <v>15.58139220779222</v>
+        <v>15.29600000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>40.50133333333331</v>
+        <v>40.00399999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39.95041459369805</v>
+        <v>40.22799999999992</v>
       </c>
       <c r="B4" t="n">
-        <v>25.00222222222219</v>
+        <v>25.26400000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>56.99466666666671</v>
+        <v>56.628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30.13344610281917</v>
+        <v>30.03992039800988</v>
       </c>
       <c r="B5" t="n">
-        <v>18.40745396825396</v>
+        <v>17.21199999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>46.55899999999993</v>
+        <v>46.09600000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61.78684510779428</v>
+        <v>61.96770149253724</v>
       </c>
       <c r="B6" t="n">
-        <v>44.91570663780668</v>
+        <v>45.01999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>76.10876022126016</v>
+        <v>75.92000000000004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74.5923217218343</v>
+        <v>74.98384079601981</v>
       </c>
       <c r="B7" t="n">
-        <v>62.19014959138258</v>
+        <v>62.54399999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>85.98863236233629</v>
+        <v>85.69999999999995</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70.09431968282318</v>
+        <v>69.95639800995012</v>
       </c>
       <c r="B8" t="n">
-        <v>53.79500467310467</v>
+        <v>54.03199999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>83.19330476190486</v>
+        <v>83.21199999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>59.36558208955208</v>
+        <v>59.40698507462682</v>
       </c>
       <c r="B9" t="n">
-        <v>42.91944444444442</v>
+        <v>42.876</v>
       </c>
       <c r="C9" t="n">
-        <v>75.06644603174593</v>
+        <v>74.98800000000004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69.1449891325295</v>
+        <v>69.16362189054713</v>
       </c>
       <c r="B10" t="n">
-        <v>54.41639716146978</v>
+        <v>54.46</v>
       </c>
       <c r="C10" t="n">
-        <v>82.26217272779812</v>
+        <v>81.78799999999997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78.31244213398826</v>
+        <v>78.60533333333328</v>
       </c>
       <c r="B11" t="n">
-        <v>66.14111887503316</v>
+        <v>67.07199999999997</v>
       </c>
       <c r="C11" t="n">
-        <v>87.3063105470367</v>
+        <v>87.81599999999997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>74.08939699451084</v>
+        <v>73.90105472636797</v>
       </c>
       <c r="B12" t="n">
-        <v>60.40435411255412</v>
+        <v>60.91600000000005</v>
       </c>
       <c r="C12" t="n">
-        <v>84.20095585047908</v>
+        <v>83.708</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>74.1687820308108</v>
+        <v>74.11414925373118</v>
       </c>
       <c r="B13" t="n">
-        <v>60.65745867236692</v>
+        <v>61.51599999999996</v>
       </c>
       <c r="C13" t="n">
-        <v>85.87825418089932</v>
+        <v>86.42799999999995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>77.76506369247963</v>
+        <v>77.40965174129343</v>
       </c>
       <c r="B14" t="n">
-        <v>65.72352154829865</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>87.28913664004889</v>
+        <v>87.47999999999998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33.95351575456043</v>
+        <v>33.90991044776108</v>
       </c>
       <c r="B15" t="n">
-        <v>21.13908412698415</v>
+        <v>20.41599999999998</v>
       </c>
       <c r="C15" t="n">
-        <v>50.4996285714285</v>
+        <v>50.29200000000002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>61.76635699281361</v>
+        <v>61.83279601990043</v>
       </c>
       <c r="B16" t="n">
-        <v>44.98421139971143</v>
+        <v>44.79999999999998</v>
       </c>
       <c r="C16" t="n">
-        <v>76.06029196729189</v>
+        <v>75.96400000000003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>73.8663258265411</v>
+        <v>73.6232835820894</v>
       </c>
       <c r="B17" t="n">
-        <v>57.91504612794611</v>
+        <v>58.53600000000005</v>
       </c>
       <c r="C17" t="n">
-        <v>84.13983110485434</v>
+        <v>84.25599999999994</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>39.95041459369805</v>
+        <v>40.19564179104471</v>
       </c>
       <c r="B18" t="n">
-        <v>25.26511111111107</v>
+        <v>25.38400000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>56.8773333333334</v>
+        <v>56.48400000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>78.55652774406597</v>
+        <v>78.68248756218901</v>
       </c>
       <c r="B19" t="n">
-        <v>66.24385078714634</v>
+        <v>66.96799999999996</v>
       </c>
       <c r="C19" t="n">
-        <v>87.6860765782817</v>
+        <v>87.69199999999995</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>64.93572840559099</v>
+        <v>64.82710447761187</v>
       </c>
       <c r="B20" t="n">
-        <v>47.67109523809527</v>
+        <v>48.09599999999998</v>
       </c>
       <c r="C20" t="n">
-        <v>77.673003078403</v>
+        <v>77.47200000000007</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>48.67930016583745</v>
+        <v>48.66288557213925</v>
       </c>
       <c r="B21" t="n">
-        <v>32.14215728715729</v>
+        <v>30.79999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>64.8200370370371</v>
+        <v>64.83599999999997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>69.35481800698111</v>
+        <v>69.66310447761188</v>
       </c>
       <c r="B22" t="n">
-        <v>54.02640741276534</v>
+        <v>53.636</v>
       </c>
       <c r="C22" t="n">
-        <v>82.47629582692694</v>
+        <v>82.26400000000004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>36.49199336650066</v>
+        <v>36.49297512437792</v>
       </c>
       <c r="B23" t="n">
-        <v>21.06455555555552</v>
+        <v>21.82000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>51.71222222222222</v>
+        <v>52.11200000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>61.74160475400767</v>
+        <v>61.77723383084571</v>
       </c>
       <c r="B24" t="n">
-        <v>45.02070028860034</v>
+        <v>44.59599999999998</v>
       </c>
       <c r="C24" t="n">
-        <v>76.04730466570457</v>
+        <v>75.98400000000004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56.28850547263679</v>
+        <v>56.27596019900488</v>
       </c>
       <c r="B25" t="n">
-        <v>39.64103333333339</v>
+        <v>39.39599999999998</v>
       </c>
       <c r="C25" t="n">
-        <v>72.73755555555566</v>
+        <v>72.26799999999994</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49.13411561241399</v>
+        <v>48.98340298507456</v>
       </c>
       <c r="B26" t="n">
-        <v>32.44269153439156</v>
+        <v>33.09599999999998</v>
       </c>
       <c r="C26" t="n">
-        <v>65.37075079365071</v>
+        <v>65.56000000000004</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>74.16195774493181</v>
+        <v>74.05108457711427</v>
       </c>
       <c r="B27" t="n">
-        <v>62.16702015527426</v>
+        <v>62.44000000000003</v>
       </c>
       <c r="C27" t="n">
-        <v>85.87481415136122</v>
+        <v>86.07599999999994</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>75.48656518051425</v>
+        <v>76.14407960198993</v>
       </c>
       <c r="B28" t="n">
-        <v>63.24330191672225</v>
+        <v>62.508</v>
       </c>
       <c r="C28" t="n">
-        <v>86.18234114910418</v>
+        <v>87.34400000000005</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>38.05368490878941</v>
+        <v>37.90326368159195</v>
       </c>
       <c r="B29" t="n">
-        <v>24.23333333333334</v>
+        <v>23.432</v>
       </c>
       <c r="C29" t="n">
-        <v>54.20533333333322</v>
+        <v>53.98399999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>72.71783885048053</v>
+        <v>72.54756218905459</v>
       </c>
       <c r="B30" t="n">
-        <v>56.84261344951344</v>
+        <v>57.504</v>
       </c>
       <c r="C30" t="n">
-        <v>84.01774554966873</v>
+        <v>84.248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>77.0841123657202</v>
+        <v>76.99124378109434</v>
       </c>
       <c r="B31" t="n">
-        <v>65.03299879311155</v>
+        <v>64.78000000000003</v>
       </c>
       <c r="C31" t="n">
-        <v>86.83574405552559</v>
+        <v>86.65999999999997</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>73.74576653690046</v>
+        <v>73.64163184079584</v>
       </c>
       <c r="B32" t="n">
-        <v>60.19343918100139</v>
+        <v>60.61199999999997</v>
       </c>
       <c r="C32" t="n">
-        <v>85.34462074937909</v>
+        <v>85.34800000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>77.76506369247963</v>
+        <v>77.49112437810936</v>
       </c>
       <c r="B33" t="n">
-        <v>65.74642911132386</v>
+        <v>66.036</v>
       </c>
       <c r="C33" t="n">
-        <v>87.28913664004889</v>
+        <v>87.76799999999994</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>78.56423694079949</v>
+        <v>79.18712437810936</v>
       </c>
       <c r="B34" t="n">
-        <v>68.41372895862078</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>87.8290445402948</v>
+        <v>88.11999999999996</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>62.92995046987282</v>
+        <v>63.05259701492534</v>
       </c>
       <c r="B35" t="n">
-        <v>46.02975425685432</v>
+        <v>45.632</v>
       </c>
       <c r="C35" t="n">
-        <v>77.01477768157764</v>
+        <v>77.068</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>74.5923217218343</v>
+        <v>74.85148258706461</v>
       </c>
       <c r="B36" t="n">
-        <v>62.17281625804925</v>
+        <v>61.23600000000003</v>
       </c>
       <c r="C36" t="n">
-        <v>85.9988209663249</v>
+        <v>86.25199999999995</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>51.74995024875611</v>
+        <v>51.86445771144265</v>
       </c>
       <c r="B37" t="n">
-        <v>33.13882853072855</v>
+        <v>34.032</v>
       </c>
       <c r="C37" t="n">
-        <v>66.8004560846561</v>
+        <v>67.07999999999997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>77.99469233792514</v>
+        <v>78.02796019900489</v>
       </c>
       <c r="B38" t="n">
-        <v>65.99824843309442</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>87.87678368393965</v>
+        <v>87.69199999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>75.16520761272996</v>
+        <v>75.48875621890544</v>
       </c>
       <c r="B39" t="n">
-        <v>63.59398831168832</v>
+        <v>64.50799999999998</v>
       </c>
       <c r="C39" t="n">
-        <v>86.28521394901408</v>
+        <v>86.23999999999995</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44.54058927584298</v>
+        <v>45.01876616915414</v>
       </c>
       <c r="B40" t="n">
-        <v>29.54059393569392</v>
+        <v>28.89600000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>63.21135555555549</v>
+        <v>63.54000000000005</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>74.2861227188737</v>
+        <v>73.06989054726353</v>
       </c>
       <c r="B41" t="n">
-        <v>58.28583112828728</v>
+        <v>56.992</v>
       </c>
       <c r="C41" t="n">
-        <v>85.5714455631357</v>
+        <v>84.85199999999993</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>78.46195805715766</v>
+        <v>78.8741293532338</v>
       </c>
       <c r="B42" t="n">
-        <v>66.22407968527524</v>
+        <v>66.70399999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>87.72252393844809</v>
+        <v>87.94399999999995</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>72.7205599118404</v>
+        <v>72.51998009950236</v>
       </c>
       <c r="B43" t="n">
-        <v>57.17758704258704</v>
+        <v>57.636</v>
       </c>
       <c r="C43" t="n">
-        <v>83.96841221633541</v>
+        <v>84.18400000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>76.88495320500705</v>
+        <v>76.19601990049739</v>
       </c>
       <c r="B44" t="n">
-        <v>63.67812610608232</v>
+        <v>62.18000000000004</v>
       </c>
       <c r="C44" t="n">
-        <v>86.55701632542933</v>
+        <v>86.34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>78.60270339096198</v>
+        <v>78.80881592039795</v>
       </c>
       <c r="B45" t="n">
-        <v>67.24252337474053</v>
+        <v>67.48800000000003</v>
       </c>
       <c r="C45" t="n">
-        <v>87.85432539355634</v>
+        <v>87.95599999999996</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>76.91997318489008</v>
+        <v>76.96577114427845</v>
       </c>
       <c r="B46" t="n">
-        <v>64.7027436872627</v>
+        <v>64.44400000000005</v>
       </c>
       <c r="C46" t="n">
-        <v>86.85663640872512</v>
+        <v>87.40399999999995</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>69.45242333907295</v>
+        <v>69.29994029850732</v>
       </c>
       <c r="B47" t="n">
-        <v>53.56746119710733</v>
+        <v>53.29999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>82.27514799310728</v>
+        <v>82.16400000000007</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>73.95558652305854</v>
+        <v>74.05586069651724</v>
       </c>
       <c r="B48" t="n">
-        <v>59.67734247234247</v>
+        <v>60.16000000000004</v>
       </c>
       <c r="C48" t="n">
-        <v>84.20375015247338</v>
+        <v>84.19999999999996</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>42.0186307352127</v>
+        <v>42.15331343283577</v>
       </c>
       <c r="B49" t="n">
-        <v>27.19941428571426</v>
+        <v>27.01600000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>58.56133333333341</v>
+        <v>58.42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>51.83499170812593</v>
+        <v>51.97609950248741</v>
       </c>
       <c r="B50" t="n">
-        <v>34.6127809116809</v>
+        <v>35.82000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>66.78636084656092</v>
+        <v>67.18799999999997</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26.04839800995018</v>
+        <v>26.21671641791042</v>
       </c>
       <c r="B51" t="n">
-        <v>16.09479682539682</v>
+        <v>15.16</v>
       </c>
       <c r="C51" t="n">
-        <v>39.57997777777781</v>
+        <v>39.61999999999998</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>76.87429785538156</v>
+        <v>76.14712437810927</v>
       </c>
       <c r="B52" t="n">
-        <v>63.64876770152392</v>
+        <v>62.15600000000004</v>
       </c>
       <c r="C52" t="n">
-        <v>86.56135706617009</v>
+        <v>86.33600000000004</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>74.92106380794431</v>
+        <v>75.08348258706467</v>
       </c>
       <c r="B53" t="n">
-        <v>61.37971159211158</v>
+        <v>62.25200000000002</v>
       </c>
       <c r="C53" t="n">
-        <v>85.7855902615904</v>
+        <v>85.96799999999996</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>33.92998009950239</v>
+        <v>33.85383084577103</v>
       </c>
       <c r="B54" t="n">
-        <v>20.96254155844157</v>
+        <v>20.34799999999998</v>
       </c>
       <c r="C54" t="n">
-        <v>50.56762857142849</v>
+        <v>50.21600000000002</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>48.65898839137633</v>
+        <v>48.55203980099496</v>
       </c>
       <c r="B55" t="n">
-        <v>31.30424935064937</v>
+        <v>30.87199999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>65.18328042328039</v>
+        <v>65.17200000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>77.0841123657202</v>
+        <v>77.36630845771136</v>
       </c>
       <c r="B56" t="n">
-        <v>65.18335148635896</v>
+        <v>65.3</v>
       </c>
       <c r="C56" t="n">
-        <v>86.93544441423433</v>
+        <v>87.08399999999995</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>73.65846710578984</v>
+        <v>73.58754228855707</v>
       </c>
       <c r="B57" t="n">
-        <v>60.18237127113348</v>
+        <v>60.65599999999996</v>
       </c>
       <c r="C57" t="n">
-        <v>85.28213784261726</v>
+        <v>85.18400000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>51.92174461028178</v>
+        <v>51.89769154228846</v>
       </c>
       <c r="B58" t="n">
-        <v>32.79448567358568</v>
+        <v>33.336</v>
       </c>
       <c r="C58" t="n">
-        <v>67.22125238095234</v>
+        <v>67.508</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>77.12819836449827</v>
+        <v>77.63317412935318</v>
       </c>
       <c r="B59" t="n">
-        <v>65.13683772963614</v>
+        <v>66.40399999999998</v>
       </c>
       <c r="C59" t="n">
-        <v>86.81280402599695</v>
+        <v>87.02399999999997</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>36.92585074626849</v>
+        <v>37.0556019900496</v>
       </c>
       <c r="B60" t="n">
-        <v>23.16599999999998</v>
+        <v>23.396</v>
       </c>
       <c r="C60" t="n">
-        <v>52.53866666666664</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>77.88911234142651</v>
+        <v>77.39844776119389</v>
       </c>
       <c r="B61" t="n">
-        <v>65.75657195823732</v>
+        <v>65.03999999999998</v>
       </c>
       <c r="C61" t="n">
-        <v>87.62247899504736</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>78.31817696909911</v>
+        <v>78.68583084577108</v>
       </c>
       <c r="B62" t="n">
-        <v>66.11972164703593</v>
+        <v>66.75599999999997</v>
       </c>
       <c r="C62" t="n">
-        <v>87.3063105470367</v>
+        <v>87.63599999999995</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>78.03190964966201</v>
+        <v>78.58847761194021</v>
       </c>
       <c r="B63" t="n">
-        <v>68.20743929264675</v>
+        <v>68.29599999999995</v>
       </c>
       <c r="C63" t="n">
-        <v>87.61365860049004</v>
+        <v>88.05199999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>37.16481592039788</v>
+        <v>37.44392039800983</v>
       </c>
       <c r="B64" t="n">
-        <v>23.71666666666667</v>
+        <v>24.228</v>
       </c>
       <c r="C64" t="n">
-        <v>52.68799999999996</v>
+        <v>53.71199999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73.65961833010992</v>
+        <v>73.46811940298497</v>
       </c>
       <c r="B65" t="n">
-        <v>59.56111398761757</v>
+        <v>59.86000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>85.29195094693338</v>
+        <v>84.892</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>78.52379612901433</v>
+        <v>78.11880597014925</v>
       </c>
       <c r="B66" t="n">
-        <v>65.9638411832741</v>
+        <v>66.508</v>
       </c>
       <c r="C66" t="n">
-        <v>87.66079572502015</v>
+        <v>86.93599999999996</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>78.43450191658548</v>
+        <v>78.49454726368151</v>
       </c>
       <c r="B67" t="n">
-        <v>66.17953990180342</v>
+        <v>66.84799999999997</v>
       </c>
       <c r="C67" t="n">
-        <v>87.80725255328893</v>
+        <v>88.24000000000004</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>47.73666080707556</v>
+        <v>47.94997014925362</v>
       </c>
       <c r="B68" t="n">
-        <v>31.3582745032745</v>
+        <v>30.48400000000002</v>
       </c>
       <c r="C68" t="n">
-        <v>64.85714656084654</v>
+        <v>65.304</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>69.54542488025029</v>
+        <v>69.70437810945268</v>
       </c>
       <c r="B69" t="n">
-        <v>54.17023333129128</v>
+        <v>54.29600000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>82.72681605659979</v>
+        <v>83.196</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>44.4161791044775</v>
+        <v>44.64565174129342</v>
       </c>
       <c r="B70" t="n">
-        <v>28.8289685388685</v>
+        <v>29.71600000000002</v>
       </c>
       <c r="C70" t="n">
-        <v>62.30933333333333</v>
+        <v>61.98800000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>65.22602275921965</v>
+        <v>65.19494527363173</v>
       </c>
       <c r="B71" t="n">
-        <v>47.80591601731595</v>
+        <v>47.89999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>78.92106703296714</v>
+        <v>78.44399999999996</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>70.0581806305173</v>
+        <v>70.46714427860688</v>
       </c>
       <c r="B72" t="n">
-        <v>56.13180031820038</v>
+        <v>56.07199999999995</v>
       </c>
       <c r="C72" t="n">
-        <v>82.61485608095602</v>
+        <v>82.56800000000003</v>
       </c>
     </row>
   </sheetData>
